--- a/Anatomie/data/Reconnaissance.xlsx
+++ b/Anatomie/data/Reconnaissance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Anatomie\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7568C8C9-2222-4585-B504-82C90D1C80D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70576C4-3C66-4386-B95A-18AD2F63D34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{24E2671D-7CFF-4DA9-BE3C-6DCEADEF94F2}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{24E2671D-7CFF-4DA9-BE3C-6DCEADEF94F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>titre</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>abaisseur de l'angle de la bouche</t>
+  </si>
+  <si>
+    <t>image2</t>
   </si>
 </sst>
 </file>
@@ -668,21 +671,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF34EB4-9C3F-495F-A40C-2FE4330D40F6}">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:S16"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="48.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="48.42578125" style="1"/>
-    <col min="21" max="21" width="58.85546875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="48.42578125" style="1"/>
+    <col min="1" max="21" width="48.42578125" style="1"/>
+    <col min="22" max="22" width="58.85546875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="48.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,334 +693,361 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="b">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="b">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="b">
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="b">
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="b">
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="b">
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="b">
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="b">
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>83</v>
       </c>
     </row>

--- a/Anatomie/data/Reconnaissance.xlsx
+++ b/Anatomie/data/Reconnaissance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Anatomie\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70576C4-3C66-4386-B95A-18AD2F63D34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0A2187-2167-464B-AA17-4BCF94975D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{24E2671D-7CFF-4DA9-BE3C-6DCEADEF94F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
   <si>
     <t>titre</t>
   </si>
@@ -291,6 +291,165 @@
   </si>
   <si>
     <t>image2</t>
+  </si>
+  <si>
+    <t>Question 9</t>
+  </si>
+  <si>
+    <t>Question 10</t>
+  </si>
+  <si>
+    <t>Question 11</t>
+  </si>
+  <si>
+    <t>Question 12</t>
+  </si>
+  <si>
+    <t>Question 13</t>
+  </si>
+  <si>
+    <t>Question 14</t>
+  </si>
+  <si>
+    <t>Question 15</t>
+  </si>
+  <si>
+    <t>Question 16</t>
+  </si>
+  <si>
+    <t>Question 17</t>
+  </si>
+  <si>
+    <t>Question 18</t>
+  </si>
+  <si>
+    <t>Question 19</t>
+  </si>
+  <si>
+    <t>Question 20</t>
+  </si>
+  <si>
+    <t>Question 21</t>
+  </si>
+  <si>
+    <t>Question 22</t>
+  </si>
+  <si>
+    <t>Question 23</t>
+  </si>
+  <si>
+    <t>Question 24</t>
+  </si>
+  <si>
+    <t>Question 25</t>
+  </si>
+  <si>
+    <t>Question 26</t>
+  </si>
+  <si>
+    <t>Question 27</t>
+  </si>
+  <si>
+    <t>Question 28</t>
+  </si>
+  <si>
+    <t>Question 29</t>
+  </si>
+  <si>
+    <t>Question 30</t>
+  </si>
+  <si>
+    <t>Question 31</t>
+  </si>
+  <si>
+    <t>Question 32</t>
+  </si>
+  <si>
+    <t>Question 33</t>
+  </si>
+  <si>
+    <t>Question 34</t>
+  </si>
+  <si>
+    <t>Question 35</t>
+  </si>
+  <si>
+    <t>Question 36</t>
+  </si>
+  <si>
+    <t>Question 37</t>
+  </si>
+  <si>
+    <t>Question 38</t>
+  </si>
+  <si>
+    <t>Question 39</t>
+  </si>
+  <si>
+    <t>Question 40</t>
+  </si>
+  <si>
+    <t>Question 41</t>
+  </si>
+  <si>
+    <t>Question 42</t>
+  </si>
+  <si>
+    <t>Question 43</t>
+  </si>
+  <si>
+    <t>Question 44</t>
+  </si>
+  <si>
+    <t>Question 45</t>
+  </si>
+  <si>
+    <t>Question 46</t>
+  </si>
+  <si>
+    <t>Question 47</t>
+  </si>
+  <si>
+    <t>Question 48</t>
+  </si>
+  <si>
+    <t>Question 49</t>
+  </si>
+  <si>
+    <t>Question 50</t>
+  </si>
+  <si>
+    <t>Question 51</t>
+  </si>
+  <si>
+    <t>Question 52</t>
+  </si>
+  <si>
+    <t>Question 53</t>
+  </si>
+  <si>
+    <t>Question 54</t>
+  </si>
+  <si>
+    <t>Question 55</t>
+  </si>
+  <si>
+    <t>Bonus 1</t>
+  </si>
+  <si>
+    <t>Bonus 2</t>
+  </si>
+  <si>
+    <t>Bonus 3</t>
+  </si>
+  <si>
+    <t>Bonus 4</t>
+  </si>
+  <si>
+    <t>Bonus 5</t>
+  </si>
+  <si>
+    <t>Bonus 6</t>
   </si>
 </sst>
 </file>
@@ -671,11 +830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF34EB4-9C3F-495F-A40C-2FE4330D40F6}">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="48.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,6 +1210,589 @@
         <v>83</v>
       </c>
     </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="1">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="1">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="1">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Anatomie/data/Reconnaissance.xlsx
+++ b/Anatomie/data/Reconnaissance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Anatomie\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0A2187-2167-464B-AA17-4BCF94975D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F5AA1B-1F1F-44B5-8365-803BF8060671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{24E2671D-7CFF-4DA9-BE3C-6DCEADEF94F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="316">
   <si>
     <t>titre</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Veine jugulaire externe</t>
   </si>
   <si>
-    <t>Muscle Sterno-Cleido-Mastoidien</t>
-  </si>
-  <si>
     <t>Chef Claviculaire du SCM</t>
   </si>
   <si>
@@ -206,15 +203,6 @@
     <t>Os hyoide</t>
   </si>
   <si>
-    <t>Muscles Omo-hyoidien et sterno-hyoidien</t>
-  </si>
-  <si>
-    <t>Muscle thyro-hyoidien</t>
-  </si>
-  <si>
-    <t>Muscle sterno-thyroidien</t>
-  </si>
-  <si>
     <t>Ventre supérieur de l'omo-hyoidien</t>
   </si>
   <si>
@@ -251,9 +239,6 @@
     <t>Muscle Omo-hyoidien</t>
   </si>
   <si>
-    <t>Muscle frontal</t>
-  </si>
-  <si>
     <t>Parties orbitaires et palpébrale de l'orbiculaire de l'œil</t>
   </si>
   <si>
@@ -281,15 +266,6 @@
     <t>Grand et petit zygomatiques</t>
   </si>
   <si>
-    <t>buccinateur</t>
-  </si>
-  <si>
-    <t>risorius</t>
-  </si>
-  <si>
-    <t>abaisseur de l'angle de la bouche</t>
-  </si>
-  <si>
     <t>image2</t>
   </si>
   <si>
@@ -450,6 +426,564 @@
   </si>
   <si>
     <t>Bonus 6</t>
+  </si>
+  <si>
+    <t>Ptérygoidien médial</t>
+  </si>
+  <si>
+    <t>Paroi du pharynx</t>
+  </si>
+  <si>
+    <t>Ramus mandibulaire</t>
+  </si>
+  <si>
+    <t>Masséter</t>
+  </si>
+  <si>
+    <t>Stylo-glosse</t>
+  </si>
+  <si>
+    <t>Artère carotide interne</t>
+  </si>
+  <si>
+    <t>Veine rétro-mandibulaire</t>
+  </si>
+  <si>
+    <t>Artère carotide externe</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Digastrique</t>
+  </si>
+  <si>
+    <t>Sterno-cléido-mastoidien</t>
+  </si>
+  <si>
+    <t>Sterno-thyroidien</t>
+  </si>
+  <si>
+    <t>Thyro-hyoidien</t>
+  </si>
+  <si>
+    <t>Omo-hyoidien et sterno-hyoidien</t>
+  </si>
+  <si>
+    <t>Frontal</t>
+  </si>
+  <si>
+    <t>Glande parotide accessoire</t>
+  </si>
+  <si>
+    <t>Conduit parotidien</t>
+  </si>
+  <si>
+    <t>Arcade zygomatique</t>
+  </si>
+  <si>
+    <t>Artère temporale superficielle</t>
+  </si>
+  <si>
+    <t>Méat acoustique externe</t>
+  </si>
+  <si>
+    <t>Buccinateur</t>
+  </si>
+  <si>
+    <t>Artère faciale</t>
+  </si>
+  <si>
+    <t>Temporal</t>
+  </si>
+  <si>
+    <t>Capsule de l'articulation temporo-mandibulaire</t>
+  </si>
+  <si>
+    <t>Processus coronoide</t>
+  </si>
+  <si>
+    <t>Ventre antérieur du digastrique</t>
+  </si>
+  <si>
+    <t>Stylo-hyoidien</t>
+  </si>
+  <si>
+    <t>Processus styloide</t>
+  </si>
+  <si>
+    <t>Mylo-hyoidien</t>
+  </si>
+  <si>
+    <t>Glande sub-mandibulaire</t>
+  </si>
+  <si>
+    <t>Conduit submandibulaire</t>
+  </si>
+  <si>
+    <t>Nerf pour le thyro-hyoidien</t>
+  </si>
+  <si>
+    <t>Nerf lingual</t>
+  </si>
+  <si>
+    <t>Glande sublinguale</t>
+  </si>
+  <si>
+    <t>Génio-hyoidien</t>
+  </si>
+  <si>
+    <t>Hyo-glosse</t>
+  </si>
+  <si>
+    <t>Os  hyoide</t>
+  </si>
+  <si>
+    <t>Foramen caecum</t>
+  </si>
+  <si>
+    <t>Sillon terminal</t>
+  </si>
+  <si>
+    <t>Papilles fongiformes</t>
+  </si>
+  <si>
+    <t>Papilles circumvollées</t>
+  </si>
+  <si>
+    <t>Génio-glosse</t>
+  </si>
+  <si>
+    <t>Palais dur</t>
+  </si>
+  <si>
+    <t>Epiglotte</t>
+  </si>
+  <si>
+    <t>Foramen zygomatico-facial</t>
+  </si>
+  <si>
+    <t>il sait pas pointer c'est terrible</t>
+  </si>
+  <si>
+    <t>Fissure orbitaire inférieure</t>
+  </si>
+  <si>
+    <t>Fosse ptérygo-palatine</t>
+  </si>
+  <si>
+    <t>Maxillaire</t>
+  </si>
+  <si>
+    <t>Hamulus ptérygoidien</t>
+  </si>
+  <si>
+    <t>Processus mastoide</t>
+  </si>
+  <si>
+    <t>Lèvre supérieure</t>
+  </si>
+  <si>
+    <t>Sinus sphénoide</t>
+  </si>
+  <si>
+    <t>Trompe auditive</t>
+  </si>
+  <si>
+    <t>Palais mou</t>
+  </si>
+  <si>
+    <t>Orbite</t>
+  </si>
+  <si>
+    <t>Lobe frontal</t>
+  </si>
+  <si>
+    <t>Cellules ethmoidales</t>
+  </si>
+  <si>
+    <t>Sinus maxillaire</t>
+  </si>
+  <si>
+    <t>Cornet moyen</t>
+  </si>
+  <si>
+    <t>Cornet inférieur</t>
+  </si>
+  <si>
+    <t>Septum nasal</t>
+  </si>
+  <si>
+    <t>Récessus sphéno-ethmoidal</t>
+  </si>
+  <si>
+    <t>Sinus frontal</t>
+  </si>
+  <si>
+    <t>Cornet supérieur</t>
+  </si>
+  <si>
+    <t>Vestibule</t>
+  </si>
+  <si>
+    <t>Sinus sphénoidal</t>
+  </si>
+  <si>
+    <t>Insertion du cornet nasal inférieur</t>
+  </si>
+  <si>
+    <t>Mais j'ai aucune idée c'est quel os</t>
+  </si>
+  <si>
+    <t>Tonsille pharyngienne</t>
+  </si>
+  <si>
+    <t>Tonsille palatine</t>
+  </si>
+  <si>
+    <t>Oro-pharynx</t>
+  </si>
+  <si>
+    <t>Laryngo-pharynx</t>
+  </si>
+  <si>
+    <t>Cavité nasale</t>
+  </si>
+  <si>
+    <t>Cavité orale</t>
+  </si>
+  <si>
+    <t>Langue</t>
+  </si>
+  <si>
+    <t>Cartilage thyroide</t>
+  </si>
+  <si>
+    <t>Larynx</t>
+  </si>
+  <si>
+    <t>Elevateur du voile du palais</t>
+  </si>
+  <si>
+    <t>Salpingo-pharyngien</t>
+  </si>
+  <si>
+    <t>Palato-glosse</t>
+  </si>
+  <si>
+    <t>Muscle uvulaire</t>
+  </si>
+  <si>
+    <t>Palato-pharyngien</t>
+  </si>
+  <si>
+    <t>Musculature de la langue</t>
+  </si>
+  <si>
+    <t>Ptérygoidien latéral</t>
+  </si>
+  <si>
+    <t>Tenseur du voile du palais</t>
+  </si>
+  <si>
+    <t>Constricteur supérieur</t>
+  </si>
+  <si>
+    <t>Abaisseur de l'angle de la bouche</t>
+  </si>
+  <si>
+    <t>Risorius</t>
+  </si>
+  <si>
+    <t>Artère pharyngienne ascendante</t>
+  </si>
+  <si>
+    <t>Constricteur moyen</t>
+  </si>
+  <si>
+    <t>Constricteur inférieur</t>
+  </si>
+  <si>
+    <t>Raphé pharyngien</t>
+  </si>
+  <si>
+    <t>Nerf vague &amp; branche pharyngienne</t>
+  </si>
+  <si>
+    <t>Nerf laryngé supérieur</t>
+  </si>
+  <si>
+    <t>Nerf laryngé récurrent</t>
+  </si>
+  <si>
+    <t>Stylo-pharyngien</t>
+  </si>
+  <si>
+    <t>Nerf glosso-pharyngien</t>
+  </si>
+  <si>
+    <t>Branches laryngées interne et externe du nerf larungé supérieur</t>
+  </si>
+  <si>
+    <t>Cavité du larynx</t>
+  </si>
+  <si>
+    <t>Entrée du larynx</t>
+  </si>
+  <si>
+    <t>Nerf laryngé interne</t>
+  </si>
+  <si>
+    <t>Uvule</t>
+  </si>
+  <si>
+    <t>Recessus piriforme</t>
+  </si>
+  <si>
+    <t>Œsophage</t>
+  </si>
+  <si>
+    <t>Glotte</t>
+  </si>
+  <si>
+    <t>Pli vocal</t>
+  </si>
+  <si>
+    <t>Pli vestibulaire</t>
+  </si>
+  <si>
+    <t>Grande corne de l'os hyoide</t>
+  </si>
+  <si>
+    <t>Ary-épiglottique</t>
+  </si>
+  <si>
+    <t>Articulation rico-thyroidienne</t>
+  </si>
+  <si>
+    <t>Corne supérieure du cartilage thyroide</t>
+  </si>
+  <si>
+    <t>Aryténoidien</t>
+  </si>
+  <si>
+    <t>Crico-aryténoidien</t>
+  </si>
+  <si>
+    <t>Lame du cartilage cricoide</t>
+  </si>
+  <si>
+    <t>Apex</t>
+  </si>
+  <si>
+    <t>Corps du cartilage aryténoide</t>
+  </si>
+  <si>
+    <t>Processus musculaire</t>
+  </si>
+  <si>
+    <t>Corne inférieure du cartilage thyroide</t>
+  </si>
+  <si>
+    <t>Capsule de l'articulation crico-thyroidienne</t>
+  </si>
+  <si>
+    <t>Crico-aryténoidien postérieur</t>
+  </si>
+  <si>
+    <t>Muqueuse</t>
+  </si>
+  <si>
+    <t>Lame du cricoide</t>
+  </si>
+  <si>
+    <t>Anneau cricoidien</t>
+  </si>
+  <si>
+    <t>Premier anneau trachéal</t>
+  </si>
+  <si>
+    <t>Pli ary-épiglottique</t>
+  </si>
+  <si>
+    <t>Membrane thyro-hyoidienne</t>
+  </si>
+  <si>
+    <t>Apex du cartilage aryténoide gauche</t>
+  </si>
+  <si>
+    <t>Processus vocal du cartilage aryténoide</t>
+  </si>
+  <si>
+    <t>Cone elastique</t>
+  </si>
+  <si>
+    <t>Membrane ary-épiglottique</t>
+  </si>
+  <si>
+    <t>Cartilage cricoide</t>
+  </si>
+  <si>
+    <t>Ligament thyro-hyoidien</t>
+  </si>
+  <si>
+    <t>Corne supérieur du cartilage thyroide</t>
+  </si>
+  <si>
+    <t>Cartilage aryténoide</t>
+  </si>
+  <si>
+    <t>Capsule de l'articulation rico-aryténoidienne</t>
+  </si>
+  <si>
+    <t>Lame thyroidienne</t>
+  </si>
+  <si>
+    <t>Ligament crico-thyroidien</t>
+  </si>
+  <si>
+    <t>Thyro-aryténoidien</t>
+  </si>
+  <si>
+    <t>Crico-aryténoidien latéral</t>
+  </si>
+  <si>
+    <t>Dsl j'ai merdé</t>
+  </si>
+  <si>
+    <t>Cartilage aryténoide gauche</t>
+  </si>
+  <si>
+    <t>Arc cricoidien</t>
+  </si>
+  <si>
+    <t>Processus vocal</t>
+  </si>
+  <si>
+    <t>Sinus sagittal supérieur</t>
+  </si>
+  <si>
+    <t>Sinus sagittal inférieur</t>
+  </si>
+  <si>
+    <t>Fosse cranienne moyenne</t>
+  </si>
+  <si>
+    <t>Fosse cranienne antérieur</t>
+  </si>
+  <si>
+    <t>Faux du cerveau</t>
+  </si>
+  <si>
+    <t>Tente du cervelet</t>
+  </si>
+  <si>
+    <t>Bulbe olfactif</t>
+  </si>
+  <si>
+    <t>Nerf optique</t>
+  </si>
+  <si>
+    <t>Nerf oculo-moteur</t>
+  </si>
+  <si>
+    <t>Moelle épinière</t>
+  </si>
+  <si>
+    <t>Nerf trijumeau</t>
+  </si>
+  <si>
+    <t>Nerf abducens</t>
+  </si>
+  <si>
+    <t>Nerf facial et nerf vestibulo-cochléaire</t>
+  </si>
+  <si>
+    <t>Nerf glosso-pharyngien, vague et accessoire</t>
+  </si>
+  <si>
+    <t>Chiasma optique</t>
+  </si>
+  <si>
+    <t>Divisions ophtalmique et maxillaire</t>
+  </si>
+  <si>
+    <t>Division mandibulaire</t>
+  </si>
+  <si>
+    <t>Ganglion trigéminal</t>
+  </si>
+  <si>
+    <t>Nerf trochléaire</t>
+  </si>
+  <si>
+    <t>Droit supérieur</t>
+  </si>
+  <si>
+    <t>Oblique supérieur</t>
+  </si>
+  <si>
+    <t>Droit latéral</t>
+  </si>
+  <si>
+    <t>Droit médial</t>
+  </si>
+  <si>
+    <t>Droit inférieur</t>
+  </si>
+  <si>
+    <t>Releveur de la paupière supérieur</t>
+  </si>
+  <si>
+    <t>Glande lacrymale</t>
+  </si>
+  <si>
+    <t>Cristallin</t>
+  </si>
+  <si>
+    <t>Trochlée</t>
+  </si>
+  <si>
+    <t>Nerf supra-trochléaire</t>
+  </si>
+  <si>
+    <t>Nerf supra-orbitaire</t>
+  </si>
+  <si>
+    <t>Releveur de la paupière supérieure</t>
+  </si>
+  <si>
+    <t>Tarses supérieur et inférieur</t>
+  </si>
+  <si>
+    <t>Oblique inférieur</t>
+  </si>
+  <si>
+    <t>Tarse supérieur</t>
+  </si>
+  <si>
+    <t>Nerf lacrymal</t>
+  </si>
+  <si>
+    <t>Nerf infra-orbitaire</t>
+  </si>
+  <si>
+    <t>Nerf frontal</t>
+  </si>
+  <si>
+    <t>Nerf ciliaire long</t>
+  </si>
+  <si>
+    <t>Gaine du bulbe</t>
+  </si>
+  <si>
+    <t>Racine de l'oculo-moteur pour le ganglion ciliaire</t>
+  </si>
+  <si>
+    <t>Branche pour le droit médial</t>
+  </si>
+  <si>
+    <t>Platysma</t>
   </si>
 </sst>
 </file>
@@ -832,16 +1366,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF34EB4-9C3F-495F-A40C-2FE4330D40F6}">
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57:A62"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="48.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="21" width="48.42578125" style="1"/>
-    <col min="22" max="22" width="58.85546875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="48.42578125" style="1"/>
+    <col min="1" max="16384" width="48.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -852,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -861,106 +1393,106 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>38</v>
@@ -982,14 +1514,14 @@
       <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -1006,13 +1538,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -1029,19 +1561,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -1058,22 +1590,22 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -1090,13 +1622,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -1113,25 +1645,25 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -1148,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="30" x14ac:dyDescent="0.25">
@@ -1171,48 +1703,48 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="O9" s="1" t="s">
-        <v>77</v>
+        <v>150</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -1220,10 +1752,52 @@
       <c r="C10" s="1">
         <v>9</v>
       </c>
+      <c r="D10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -1231,10 +1805,25 @@
       <c r="C11" s="1">
         <v>10</v>
       </c>
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -1242,10 +1831,37 @@
       <c r="C12" s="1">
         <v>11</v>
       </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -1253,10 +1869,31 @@
       <c r="C13" s="1">
         <v>12</v>
       </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -1264,10 +1901,28 @@
       <c r="C14" s="1">
         <v>13</v>
       </c>
+      <c r="D14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -1275,10 +1930,25 @@
       <c r="C15" s="1">
         <v>15</v>
       </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -1286,10 +1956,22 @@
       <c r="C16" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -1297,10 +1979,37 @@
       <c r="C17" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -1308,10 +2017,25 @@
       <c r="C18" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -1319,10 +2043,22 @@
       <c r="C19" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -1330,10 +2066,34 @@
       <c r="C20" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -1341,10 +2101,40 @@
       <c r="C21" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -1352,10 +2142,28 @@
       <c r="C22" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
@@ -1363,10 +2171,37 @@
       <c r="C23" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
@@ -1374,10 +2209,28 @@
       <c r="C24" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
@@ -1385,10 +2238,34 @@
       <c r="C25" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -1396,10 +2273,31 @@
       <c r="C26" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
@@ -1407,10 +2305,55 @@
       <c r="C27" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
@@ -1418,10 +2361,40 @@
       <c r="C28" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
@@ -1429,10 +2402,43 @@
       <c r="C29" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
@@ -1440,10 +2446,49 @@
       <c r="C30" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
@@ -1451,10 +2496,37 @@
       <c r="C31" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
@@ -1462,10 +2534,43 @@
       <c r="C32" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
@@ -1473,10 +2578,37 @@
       <c r="C33" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
@@ -1484,10 +2616,37 @@
       <c r="C34" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
@@ -1495,10 +2654,34 @@
       <c r="C35" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
@@ -1506,10 +2689,40 @@
       <c r="C36" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
@@ -1517,10 +2730,46 @@
       <c r="C37" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
@@ -1528,10 +2777,40 @@
       <c r="C38" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
@@ -1539,10 +2818,43 @@
       <c r="C39" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
@@ -1550,10 +2862,52 @@
       <c r="C40" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
@@ -1561,10 +2915,31 @@
       <c r="C41" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
@@ -1572,10 +2947,31 @@
       <c r="C42" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
@@ -1583,10 +2979,31 @@
       <c r="C43" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
@@ -1594,10 +3011,22 @@
       <c r="C44" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
@@ -1605,10 +3034,16 @@
       <c r="C45" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
@@ -1616,10 +3051,43 @@
       <c r="C46" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
@@ -1627,10 +3095,52 @@
       <c r="C47" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1">
         <v>47</v>
@@ -1638,10 +3148,34 @@
       <c r="C48" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B49" s="1">
         <v>48</v>
@@ -1649,10 +3183,34 @@
       <c r="C49" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B50" s="1">
         <v>49</v>
@@ -1660,10 +3218,28 @@
       <c r="C50" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B51" s="1">
         <v>50</v>
@@ -1671,10 +3247,34 @@
       <c r="C51" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B52" s="1">
         <v>51</v>
@@ -1682,10 +3282,25 @@
       <c r="C52" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B53" s="1">
         <v>52</v>
@@ -1693,10 +3308,25 @@
       <c r="C53" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B54" s="1">
         <v>53</v>
@@ -1704,10 +3334,19 @@
       <c r="C54" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B55" s="1">
         <v>54</v>
@@ -1715,10 +3354,31 @@
       <c r="C55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B56" s="1">
         <v>55</v>
@@ -1726,10 +3386,28 @@
       <c r="C56" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B57" s="1">
         <v>56</v>
@@ -1737,10 +3415,13 @@
       <c r="C57" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B58" s="1">
         <v>57</v>
@@ -1748,10 +3429,13 @@
       <c r="C58" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B59" s="1">
         <v>58</v>
@@ -1759,10 +3443,13 @@
       <c r="C59" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B60" s="1">
         <v>59</v>
@@ -1770,10 +3457,13 @@
       <c r="C60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B61" s="1">
         <v>60</v>
@@ -1781,16 +3471,22 @@
       <c r="C61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B62" s="1">
         <v>61</v>
       </c>
       <c r="C62" s="1">
         <v>61</v>
+      </c>
+      <c r="D62" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Anatomie/data/Reconnaissance.xlsx
+++ b/Anatomie/data/Reconnaissance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Anatomie\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F5AA1B-1F1F-44B5-8365-803BF8060671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB5F3D4-EBF9-4A0A-B54E-F50E29ACA9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{24E2671D-7CFF-4DA9-BE3C-6DCEADEF94F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="353">
   <si>
     <t>titre</t>
   </si>
@@ -984,6 +984,117 @@
   </si>
   <si>
     <t>Platysma</t>
+  </si>
+  <si>
+    <t>Reconnaissance 1</t>
+  </si>
+  <si>
+    <t>Reconnaissance 2</t>
+  </si>
+  <si>
+    <t>Reconnaissance 3</t>
+  </si>
+  <si>
+    <t>Reconnaissance 4</t>
+  </si>
+  <si>
+    <t>Reconnaissance 5</t>
+  </si>
+  <si>
+    <t>Reconnaissance 6</t>
+  </si>
+  <si>
+    <t>Reconnaissance 7</t>
+  </si>
+  <si>
+    <t>Reconnaissance 8</t>
+  </si>
+  <si>
+    <t>Reconnaissance 9</t>
+  </si>
+  <si>
+    <t>Reconnaissance 10</t>
+  </si>
+  <si>
+    <t>Reconnaissance 11</t>
+  </si>
+  <si>
+    <t>Reconnaissance 12</t>
+  </si>
+  <si>
+    <t>Reconnaissance 13</t>
+  </si>
+  <si>
+    <t>Reconnaissance 14</t>
+  </si>
+  <si>
+    <t>Reconnaissance 15</t>
+  </si>
+  <si>
+    <t>Reconnaissance 16</t>
+  </si>
+  <si>
+    <t>Reconnaissance 17</t>
+  </si>
+  <si>
+    <t>Reconnaissance 18</t>
+  </si>
+  <si>
+    <t>Reconnaissance 19</t>
+  </si>
+  <si>
+    <t>Reconnaissance 20</t>
+  </si>
+  <si>
+    <t>Reconnaissance 21</t>
+  </si>
+  <si>
+    <t>Reconnaissance 22</t>
+  </si>
+  <si>
+    <t>Reconnaissance 23</t>
+  </si>
+  <si>
+    <t>Reconnaissance 24</t>
+  </si>
+  <si>
+    <t>Reconnaissance 25</t>
+  </si>
+  <si>
+    <t>Reconnaissance 26</t>
+  </si>
+  <si>
+    <t>Reconnaissance 27</t>
+  </si>
+  <si>
+    <t>Reconnaissance 28</t>
+  </si>
+  <si>
+    <t>Reconnaissance 29</t>
+  </si>
+  <si>
+    <t>Reconnaissance 30</t>
+  </si>
+  <si>
+    <t>Reconnaissance 31</t>
+  </si>
+  <si>
+    <t>Reconnaissance 32</t>
+  </si>
+  <si>
+    <t>Reconnaissance 33</t>
+  </si>
+  <si>
+    <t>Reconnaissance 34</t>
+  </si>
+  <si>
+    <t>Reconnaissance 35</t>
+  </si>
+  <si>
+    <t>Reconnaissance 36</t>
+  </si>
+  <si>
+    <t>Reconnaissance 37</t>
   </si>
 </sst>
 </file>
@@ -1364,11 +1475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF34EB4-9C3F-495F-A40C-2FE4330D40F6}">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63:C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="48.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,6 +3600,413 @@
         <v>1</v>
       </c>
     </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" s="1">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B64" s="1">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B65" s="1">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B66" s="1">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B68" s="1">
+        <v>67</v>
+      </c>
+      <c r="C68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B69" s="1">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B70" s="1">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B71" s="1">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="1">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B73" s="1">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B74" s="1">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B75" s="1">
+        <v>74</v>
+      </c>
+      <c r="C75" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B76" s="1">
+        <v>75</v>
+      </c>
+      <c r="C76" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B77" s="1">
+        <v>76</v>
+      </c>
+      <c r="C77" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B78" s="1">
+        <v>77</v>
+      </c>
+      <c r="C78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B79" s="1">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B80" s="1">
+        <v>79</v>
+      </c>
+      <c r="C80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B81" s="1">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" s="1">
+        <v>81</v>
+      </c>
+      <c r="C82" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B83" s="1">
+        <v>82</v>
+      </c>
+      <c r="C83" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B84" s="1">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B85" s="1">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" s="1">
+        <v>85</v>
+      </c>
+      <c r="C86" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B87" s="1">
+        <v>86</v>
+      </c>
+      <c r="C87" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B88" s="1">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B89" s="1">
+        <v>88</v>
+      </c>
+      <c r="C89" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B90" s="1">
+        <v>89</v>
+      </c>
+      <c r="C90" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B91" s="1">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B92" s="1">
+        <v>91</v>
+      </c>
+      <c r="C92" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B93" s="1">
+        <v>92</v>
+      </c>
+      <c r="C93" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" s="1">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B97" s="1">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B98" s="1">
+        <v>97</v>
+      </c>
+      <c r="C98" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" s="1">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
